--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.97243866666667</v>
+        <v>30.93275633333333</v>
       </c>
       <c r="H2">
-        <v>101.917316</v>
+        <v>92.798269</v>
       </c>
       <c r="I2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="J2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03759866666666667</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N2">
         <v>0.112796</v>
       </c>
       <c r="O2">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719403</v>
       </c>
       <c r="P2">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719402</v>
       </c>
       <c r="Q2">
-        <v>1.277318397281778</v>
+        <v>1.163030394458222</v>
       </c>
       <c r="R2">
-        <v>11.495865575536</v>
+        <v>10.467273550124</v>
       </c>
       <c r="S2">
-        <v>0.0005006893295069131</v>
+        <v>0.0004998126140009678</v>
       </c>
       <c r="T2">
-        <v>0.0005006893295069131</v>
+        <v>0.0004998126140009677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.97243866666667</v>
+        <v>30.93275633333333</v>
       </c>
       <c r="H3">
-        <v>101.917316</v>
+        <v>92.798269</v>
       </c>
       <c r="I3">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="J3">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.531118</v>
+        <v>21.57232766666667</v>
       </c>
       <c r="N3">
-        <v>52.59335400000001</v>
+        <v>64.716983</v>
       </c>
       <c r="O3">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031189</v>
       </c>
       <c r="P3">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031188</v>
       </c>
       <c r="Q3">
-        <v>595.5748310130962</v>
+        <v>667.2915552558252</v>
       </c>
       <c r="R3">
-        <v>5360.173479117864</v>
+        <v>6005.623997302428</v>
       </c>
       <c r="S3">
-        <v>0.2334562497852736</v>
+        <v>0.2867687191344214</v>
       </c>
       <c r="T3">
-        <v>0.2334562497852736</v>
+        <v>0.2867687191344214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.97243866666667</v>
+        <v>30.93275633333333</v>
       </c>
       <c r="H4">
-        <v>101.917316</v>
+        <v>92.798269</v>
       </c>
       <c r="I4">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="J4">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.108551</v>
       </c>
       <c r="O4">
-        <v>0.0009484307189712258</v>
+        <v>0.0007995515599313469</v>
       </c>
       <c r="P4">
-        <v>0.0009484307189712259</v>
+        <v>0.0007995515599313467</v>
       </c>
       <c r="Q4">
-        <v>1.229247396568444</v>
+        <v>1.119260544246556</v>
       </c>
       <c r="R4">
-        <v>11.063226569116</v>
+        <v>10.073344898219</v>
       </c>
       <c r="S4">
-        <v>0.0004818462304275409</v>
+        <v>0.0004810025095075982</v>
       </c>
       <c r="T4">
-        <v>0.0004818462304275409</v>
+        <v>0.0004810025095075982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.97243866666667</v>
+        <v>30.93275633333333</v>
       </c>
       <c r="H5">
-        <v>101.917316</v>
+        <v>92.798269</v>
       </c>
       <c r="I5">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="J5">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.54619066666666</v>
+        <v>23.608841</v>
       </c>
       <c r="N5">
-        <v>61.638572</v>
+        <v>70.82652299999999</v>
       </c>
       <c r="O5">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798778</v>
       </c>
       <c r="P5">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798777</v>
       </c>
       <c r="Q5">
-        <v>698.0042022569725</v>
+        <v>730.2865259654096</v>
       </c>
       <c r="R5">
-        <v>6282.037820312752</v>
+        <v>6572.578733688687</v>
       </c>
       <c r="S5">
-        <v>0.2736070010146067</v>
+        <v>0.3138408241536018</v>
       </c>
       <c r="T5">
-        <v>0.2736070010146067</v>
+        <v>0.3138408241536017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.414757</v>
       </c>
       <c r="I6">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="J6">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03759866666666667</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N6">
         <v>0.112796</v>
       </c>
       <c r="O6">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719403</v>
       </c>
       <c r="P6">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719402</v>
       </c>
       <c r="Q6">
-        <v>0.00519810339688889</v>
+        <v>0.005198103396888889</v>
       </c>
       <c r="R6">
-        <v>0.04678293057200001</v>
+        <v>0.046782930572</v>
       </c>
       <c r="S6">
-        <v>2.037577247798585E-06</v>
+        <v>2.233886284508167E-06</v>
       </c>
       <c r="T6">
-        <v>2.037577247798586E-06</v>
+        <v>2.233886284508166E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.414757</v>
       </c>
       <c r="I7">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="J7">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.531118</v>
+        <v>21.57232766666667</v>
       </c>
       <c r="N7">
-        <v>52.59335400000001</v>
+        <v>64.716983</v>
       </c>
       <c r="O7">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031189</v>
       </c>
       <c r="P7">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031188</v>
       </c>
       <c r="Q7">
-        <v>2.423717969442</v>
+        <v>2.982424635347889</v>
       </c>
       <c r="R7">
-        <v>21.813461724978</v>
+        <v>26.841821718131</v>
       </c>
       <c r="S7">
-        <v>0.0009500604763982475</v>
+        <v>0.001281697761431684</v>
       </c>
       <c r="T7">
-        <v>0.0009500604763982476</v>
+        <v>0.001281697761431684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.414757</v>
       </c>
       <c r="I8">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="J8">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.108551</v>
       </c>
       <c r="O8">
-        <v>0.0009484307189712258</v>
+        <v>0.0007995515599313469</v>
       </c>
       <c r="P8">
-        <v>0.0009484307189712259</v>
+        <v>0.0007995515599313467</v>
       </c>
       <c r="Q8">
         <v>0.005002476345222222</v>
       </c>
       <c r="R8">
-        <v>0.045022287107</v>
+        <v>0.04502228710699999</v>
       </c>
       <c r="S8">
-        <v>1.960894427335935E-06</v>
+        <v>2.149815508259566E-06</v>
       </c>
       <c r="T8">
-        <v>1.960894427335936E-06</v>
+        <v>2.149815508259566E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.414757</v>
       </c>
       <c r="I9">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="J9">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.54619066666666</v>
+        <v>23.608841</v>
       </c>
       <c r="N9">
-        <v>61.638572</v>
+        <v>70.82652299999999</v>
       </c>
       <c r="O9">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798778</v>
       </c>
       <c r="P9">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798777</v>
       </c>
       <c r="Q9">
-        <v>2.840558800778222</v>
+        <v>3.263977355545666</v>
       </c>
       <c r="R9">
-        <v>25.565029207004</v>
+        <v>29.375796199911</v>
       </c>
       <c r="S9">
-        <v>0.001113455724440538</v>
+        <v>0.001402695116042255</v>
       </c>
       <c r="T9">
-        <v>0.001113455724440538</v>
+        <v>0.001402695116042255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.21179933333333</v>
+        <v>13.65672433333333</v>
       </c>
       <c r="H10">
-        <v>30.635398</v>
+        <v>40.970173</v>
       </c>
       <c r="I10">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="J10">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03759866666666667</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N10">
         <v>0.112796</v>
       </c>
       <c r="O10">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719403</v>
       </c>
       <c r="P10">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719402</v>
       </c>
       <c r="Q10">
-        <v>0.3839500392008888</v>
+        <v>0.5134746259675556</v>
       </c>
       <c r="R10">
-        <v>3.455550352808</v>
+        <v>4.621271633708</v>
       </c>
       <c r="S10">
-        <v>0.0001505025591902108</v>
+        <v>0.0002206658538339963</v>
       </c>
       <c r="T10">
-        <v>0.0001505025591902108</v>
+        <v>0.0002206658538339963</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.21179933333333</v>
+        <v>13.65672433333333</v>
       </c>
       <c r="H11">
-        <v>30.635398</v>
+        <v>40.970173</v>
       </c>
       <c r="I11">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="J11">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.531118</v>
+        <v>21.57232766666667</v>
       </c>
       <c r="N11">
-        <v>52.59335400000001</v>
+        <v>64.716983</v>
       </c>
       <c r="O11">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031189</v>
       </c>
       <c r="P11">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031188</v>
       </c>
       <c r="Q11">
-        <v>179.024259104988</v>
+        <v>294.6073321720066</v>
       </c>
       <c r="R11">
-        <v>1611.218331944892</v>
+        <v>2651.465989548059</v>
       </c>
       <c r="S11">
-        <v>0.07017477901163792</v>
+        <v>0.1266075774961455</v>
       </c>
       <c r="T11">
-        <v>0.07017477901163793</v>
+        <v>0.1266075774961455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.21179933333333</v>
+        <v>13.65672433333333</v>
       </c>
       <c r="H12">
-        <v>30.635398</v>
+        <v>40.970173</v>
       </c>
       <c r="I12">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="J12">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.108551</v>
       </c>
       <c r="O12">
-        <v>0.0009484307189712258</v>
+        <v>0.0007995515599313469</v>
       </c>
       <c r="P12">
-        <v>0.0009484307189712259</v>
+        <v>0.0007995515599313467</v>
       </c>
       <c r="Q12">
-        <v>0.3695003431442221</v>
+        <v>0.4941503610358889</v>
       </c>
       <c r="R12">
-        <v>3.325503088297999</v>
+        <v>4.447353249323</v>
       </c>
       <c r="S12">
-        <v>0.0001448384987291799</v>
+        <v>0.0002123612459620389</v>
       </c>
       <c r="T12">
-        <v>0.0001448384987291799</v>
+        <v>0.0002123612459620388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.21179933333333</v>
+        <v>13.65672433333333</v>
       </c>
       <c r="H13">
-        <v>30.635398</v>
+        <v>40.970173</v>
       </c>
       <c r="I13">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="J13">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.54619066666666</v>
+        <v>23.608841</v>
       </c>
       <c r="N13">
-        <v>61.638572</v>
+        <v>70.82652299999999</v>
       </c>
       <c r="O13">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798778</v>
       </c>
       <c r="P13">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798777</v>
       </c>
       <c r="Q13">
-        <v>209.8135761524062</v>
+        <v>322.4194333664977</v>
       </c>
       <c r="R13">
-        <v>1888.322185371656</v>
+        <v>2901.774900298479</v>
       </c>
       <c r="S13">
-        <v>0.0822437216818865</v>
+        <v>0.1385598352059309</v>
       </c>
       <c r="T13">
-        <v>0.08224372168188651</v>
+        <v>0.1385598352059308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1262346666666667</v>
+        <v>0.1180373333333333</v>
       </c>
       <c r="H14">
-        <v>0.378704</v>
+        <v>0.354112</v>
       </c>
       <c r="I14">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="J14">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03759866666666667</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N14">
         <v>0.112796</v>
       </c>
       <c r="O14">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719403</v>
       </c>
       <c r="P14">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719402</v>
       </c>
       <c r="Q14">
-        <v>0.004746255153777779</v>
+        <v>0.004438046350222221</v>
       </c>
       <c r="R14">
-        <v>0.04271629638400001</v>
+        <v>0.039942417152</v>
       </c>
       <c r="S14">
-        <v>1.860459628289132E-06</v>
+        <v>1.90725157135324E-06</v>
       </c>
       <c r="T14">
-        <v>1.860459628289132E-06</v>
+        <v>1.90725157135324E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1262346666666667</v>
+        <v>0.1180373333333333</v>
       </c>
       <c r="H15">
-        <v>0.378704</v>
+        <v>0.354112</v>
       </c>
       <c r="I15">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="J15">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.531118</v>
+        <v>21.57232766666667</v>
       </c>
       <c r="N15">
-        <v>52.59335400000001</v>
+        <v>64.716983</v>
       </c>
       <c r="O15">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031189</v>
       </c>
       <c r="P15">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031188</v>
       </c>
       <c r="Q15">
-        <v>2.213034837024001</v>
+        <v>2.546340031566222</v>
       </c>
       <c r="R15">
-        <v>19.917313533216</v>
+        <v>22.917060284096</v>
       </c>
       <c r="S15">
-        <v>0.0008674759019231067</v>
+        <v>0.001094290289726506</v>
       </c>
       <c r="T15">
-        <v>0.0008674759019231068</v>
+        <v>0.001094290289726506</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1262346666666667</v>
+        <v>0.1180373333333333</v>
       </c>
       <c r="H16">
-        <v>0.378704</v>
+        <v>0.354112</v>
       </c>
       <c r="I16">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="J16">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1432,22 +1432,22 @@
         <v>0.108551</v>
       </c>
       <c r="O16">
-        <v>0.0009484307189712258</v>
+        <v>0.0007995515599313469</v>
       </c>
       <c r="P16">
-        <v>0.0009484307189712259</v>
+        <v>0.0007995515599313467</v>
       </c>
       <c r="Q16">
-        <v>0.004567633100444445</v>
+        <v>0.004271023523555554</v>
       </c>
       <c r="R16">
-        <v>0.041108697904</v>
+        <v>0.03843921171199999</v>
       </c>
       <c r="S16">
-        <v>1.790442507805361E-06</v>
+        <v>1.835473468225519E-06</v>
       </c>
       <c r="T16">
-        <v>1.790442507805361E-06</v>
+        <v>1.835473468225518E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1262346666666667</v>
+        <v>0.1180373333333333</v>
       </c>
       <c r="H17">
-        <v>0.378704</v>
+        <v>0.354112</v>
       </c>
       <c r="I17">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="J17">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.54619066666666</v>
+        <v>23.608841</v>
       </c>
       <c r="N17">
-        <v>61.638572</v>
+        <v>70.82652299999999</v>
       </c>
       <c r="O17">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798778</v>
       </c>
       <c r="P17">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798777</v>
       </c>
       <c r="Q17">
-        <v>2.593641530076445</v>
+        <v>2.786724634730666</v>
       </c>
       <c r="R17">
-        <v>23.342773770688</v>
+        <v>25.080521712576</v>
       </c>
       <c r="S17">
-        <v>0.001016667920417328</v>
+        <v>0.00119759563535264</v>
       </c>
       <c r="T17">
-        <v>0.001016667920417328</v>
+        <v>0.00119759563535264</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>22.42012733333333</v>
+        <v>6.572534333333333</v>
       </c>
       <c r="H18">
-        <v>67.26038199999999</v>
+        <v>19.717603</v>
       </c>
       <c r="I18">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="J18">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.03759866666666667</v>
+        <v>0.03759866666666666</v>
       </c>
       <c r="N18">
         <v>0.112796</v>
       </c>
       <c r="O18">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719403</v>
       </c>
       <c r="P18">
-        <v>0.000985520090805966</v>
+        <v>0.0008308188570719402</v>
       </c>
       <c r="Q18">
-        <v>0.8429668942302222</v>
+        <v>0.2471185275542222</v>
       </c>
       <c r="R18">
-        <v>7.586702048072</v>
+        <v>2.224066747988</v>
       </c>
       <c r="S18">
-        <v>0.0003304301652327543</v>
+        <v>0.0001061992513811149</v>
       </c>
       <c r="T18">
-        <v>0.0003304301652327543</v>
+        <v>0.0001061992513811149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>22.42012733333333</v>
+        <v>6.572534333333333</v>
       </c>
       <c r="H19">
-        <v>67.26038199999999</v>
+        <v>19.717603</v>
       </c>
       <c r="I19">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="J19">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.531118</v>
+        <v>21.57232766666667</v>
       </c>
       <c r="N19">
-        <v>52.59335400000001</v>
+        <v>64.716983</v>
       </c>
       <c r="O19">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031189</v>
       </c>
       <c r="P19">
-        <v>0.4595181301630405</v>
+        <v>0.4766843669031188</v>
       </c>
       <c r="Q19">
-        <v>393.049897855692</v>
+        <v>141.7848642390832</v>
       </c>
       <c r="R19">
-        <v>3537.449080701228</v>
+        <v>1276.063778151749</v>
       </c>
       <c r="S19">
-        <v>0.1540695649878076</v>
+        <v>0.06093208222139385</v>
       </c>
       <c r="T19">
-        <v>0.1540695649878076</v>
+        <v>0.06093208222139385</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>22.42012733333333</v>
+        <v>6.572534333333333</v>
       </c>
       <c r="H20">
-        <v>67.26038199999999</v>
+        <v>19.717603</v>
       </c>
       <c r="I20">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="J20">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1680,22 +1680,22 @@
         <v>0.108551</v>
       </c>
       <c r="O20">
-        <v>0.0009484307189712258</v>
+        <v>0.0007995515599313469</v>
       </c>
       <c r="P20">
-        <v>0.0009484307189712259</v>
+        <v>0.0007995515599313467</v>
       </c>
       <c r="Q20">
-        <v>0.8112424140535553</v>
+        <v>0.2378183914725555</v>
       </c>
       <c r="R20">
-        <v>7.301181726481999</v>
+        <v>2.140365523253</v>
       </c>
       <c r="S20">
-        <v>0.0003179946528793636</v>
+        <v>0.0001022025154852247</v>
       </c>
       <c r="T20">
-        <v>0.0003179946528793637</v>
+        <v>0.0001022025154852247</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22.42012733333333</v>
+        <v>6.572534333333333</v>
       </c>
       <c r="H21">
-        <v>67.26038199999999</v>
+        <v>19.717603</v>
       </c>
       <c r="I21">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="J21">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.54619066666666</v>
+        <v>23.608841</v>
       </c>
       <c r="N21">
-        <v>61.638572</v>
+        <v>70.82652299999999</v>
       </c>
       <c r="O21">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798778</v>
       </c>
       <c r="P21">
-        <v>0.5385479190271824</v>
+        <v>0.5216852626798777</v>
       </c>
       <c r="Q21">
-        <v>460.6482109616114</v>
+        <v>155.1699180427076</v>
       </c>
       <c r="R21">
-        <v>4145.833898654503</v>
+        <v>1396.529262384369</v>
       </c>
       <c r="S21">
-        <v>0.1805670726858312</v>
+        <v>0.0666843125689503</v>
       </c>
       <c r="T21">
-        <v>0.1805670726858312</v>
+        <v>0.06668431256895029</v>
       </c>
     </row>
   </sheetData>
